--- a/docs/Legal Questionnaire.xlsx
+++ b/docs/Legal Questionnaire.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="980" windowWidth="25040" windowHeight="17760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Collecting" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Contacts</t>
   </si>
@@ -79,13 +79,7 @@
     <t>Precise past location of where a user has gone</t>
   </si>
   <si>
-    <t>Precise past location</t>
-  </si>
-  <si>
     <t>Precise current location of where a user has gone</t>
-  </si>
-  <si>
-    <t>Precise current location</t>
   </si>
   <si>
     <t>Files stored on your device that contain your content</t>
@@ -420,9 +414,6 @@
     </r>
   </si>
   <si>
-    <t>Software companies that power your device, app stores, or companies that provide common tools and informationa bout app consumers</t>
-  </si>
-  <si>
     <t>Software companies that power your device, app stores, or companies that provide developers with info about app consumers</t>
   </si>
   <si>
@@ -436,6 +427,12 @@
   </si>
   <si>
     <t>Precise past or current location of your device</t>
+  </si>
+  <si>
+    <t>Software companies that power your device, app stores, or companies that provide common tools and information about app consumers</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -832,7 +829,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -932,13 +929,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,6 +1024,18 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,7 +1057,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1499,16 +1511,14 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27" style="38" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27" style="38" customWidth="1"/>
+    <col min="2" max="2" width="27" style="36" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="27" style="36" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="28" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="28" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="28" customWidth="1"/>
@@ -1517,127 +1527,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1" ht="39" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="29" customFormat="1" ht="25" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="29" customFormat="1" ht="25" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="28" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="37" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="37" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" s="30" customFormat="1" ht="97" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="22"/>
@@ -1645,7 +1655,7 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" s="30" customFormat="1" ht="16">
-      <c r="A11" s="49"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1656,10 +1666,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="79"/>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="30">
-      <c r="A12" s="49"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1670,10 +1680,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8" s="31" customFormat="1">
-      <c r="A13" s="49"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1684,10 +1694,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8" s="31" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="49"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1698,10 +1708,10 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8" s="31" customFormat="1">
-      <c r="A15" s="49"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1712,10 +1722,10 @@
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" s="31" customFormat="1">
-      <c r="A16" s="49"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1726,28 +1736,28 @@
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" s="31" customFormat="1" ht="44" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1755,7 +1765,7 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" s="30" customFormat="1" ht="30">
-      <c r="A19" s="50"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1766,10 +1776,10 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="32"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" s="31" customFormat="1" ht="30">
-      <c r="A20" s="50"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1780,28 +1790,28 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="32"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" ht="32" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1809,7 +1819,7 @@
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" s="30" customFormat="1" ht="16">
-      <c r="A23" s="50"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1823,25 +1833,25 @@
       <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" s="33" customFormat="1" ht="29" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" ht="66" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1849,53 +1859,51 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" s="30" customFormat="1" ht="30">
-      <c r="A26" s="50"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>19</v>
+      <c r="D26" s="81" t="s">
+        <v>105</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="32"/>
+      <c r="H26" s="71"/>
     </row>
     <row r="27" spans="1:8" s="31" customFormat="1" ht="30">
-      <c r="A27" s="50"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D27" s="82"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="32"/>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" s="31" customFormat="1" ht="85" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -1903,81 +1911,81 @@
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" s="30" customFormat="1" ht="30">
-      <c r="A30" s="50"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="32"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="1:8" s="31" customFormat="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="32"/>
+      <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8" s="31" customFormat="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="32"/>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8" s="31" customFormat="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="32"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" s="31" customFormat="1" ht="86" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -1985,81 +1993,81 @@
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" s="30" customFormat="1" ht="16">
-      <c r="A36" s="50"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:8" s="31" customFormat="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="32"/>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8" s="31" customFormat="1" ht="30">
-      <c r="A38" s="50"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="32"/>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="1:8" s="31" customFormat="1" ht="30">
-      <c r="A39" s="50"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="32"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" s="31" customFormat="1" ht="85" customHeight="1">
-      <c r="A41" s="54"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -2067,95 +2075,95 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" s="34" customFormat="1" ht="16">
-      <c r="A42" s="50"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="32"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:8" s="31" customFormat="1">
-      <c r="A43" s="50"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="32"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8" s="31" customFormat="1">
-      <c r="A44" s="50"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="32"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:8" s="31" customFormat="1">
-      <c r="A45" s="50"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="32"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:8" s="31" customFormat="1">
-      <c r="A46" s="50"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="32"/>
+      <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" s="31" customFormat="1" ht="70" customHeight="1">
-      <c r="A48" s="54"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -2163,62 +2171,62 @@
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" s="30" customFormat="1" ht="16">
-      <c r="A49" s="50"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="35"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="1:8" s="31" customFormat="1" ht="30">
-      <c r="A50" s="50"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="35"/>
+      <c r="H50" s="69"/>
     </row>
     <row r="51" spans="1:8" s="31" customFormat="1" ht="30">
-      <c r="A51" s="50"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="35"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8" s="31" customFormat="1">
-      <c r="A52" s="55"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="70"/>
     </row>
     <row r="53" spans="1:8" s="31" customFormat="1" ht="44" customHeight="1">
       <c r="A53" s="28"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -2226,13 +2234,14 @@
     </row>
     <row r="54" spans="1:8" ht="48" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B40:D40"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:H6"/>
@@ -2241,6 +2250,13 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H42:H46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2263,7 +2279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2279,111 +2297,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="36">
-      <c r="A2" s="43"/>
-      <c r="B2" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="36">
-      <c r="A3" s="44"/>
-      <c r="B3" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="34" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="29" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="35" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2393,23 +2411,23 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="62"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="57"/>
+        <v>78</v>
+      </c>
+      <c r="C10" s="55"/>
       <c r="D10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="57"/>
+        <v>78</v>
+      </c>
+      <c r="E10" s="55"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="57"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="29" customHeight="1">
-      <c r="A11" s="69"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2419,23 +2437,23 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="60">
-      <c r="A12" s="49"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="57"/>
+        <v>79</v>
+      </c>
+      <c r="C12" s="55"/>
       <c r="D12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="57"/>
+        <v>102</v>
+      </c>
+      <c r="E12" s="55"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:8" ht="29" customHeight="1">
-      <c r="A13" s="69"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2445,157 +2463,157 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="49"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15" spans="1:8" ht="38" customHeight="1">
+      <c r="A15" s="67"/>
+      <c r="B15" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="90">
+      <c r="A16" s="47"/>
+      <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-    </row>
-    <row r="15" spans="1:8" ht="38" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="56" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" ht="37" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="90">
-      <c r="A16" s="49"/>
-      <c r="B16" s="3" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18" s="60"/>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" ht="37" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="90">
+      <c r="A20" s="48"/>
+      <c r="B20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" ht="29" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="45">
+      <c r="A22" s="61"/>
+      <c r="B22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-    </row>
-    <row r="17" spans="1:8" ht="37" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="62"/>
-      <c r="B18" s="3" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="1:8" ht="29" customHeight="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="60">
+      <c r="A24" s="64"/>
+      <c r="B24" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-    </row>
-    <row r="19" spans="1:8" ht="37" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="90">
-      <c r="A20" s="50"/>
-      <c r="B20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-    </row>
-    <row r="21" spans="1:8" ht="29" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" ht="45">
-      <c r="A22" s="63"/>
-      <c r="B22" s="3" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-    </row>
-    <row r="23" spans="1:8" ht="29" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" ht="60">
-      <c r="A24" s="66"/>
-      <c r="B24" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="63"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -2605,7 +2623,7 @@
       <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="64"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -2615,82 +2633,82 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="64"/>
+      <c r="A27" s="62"/>
     </row>
     <row r="28" spans="1:8" ht="16">
-      <c r="A28" s="65"/>
+      <c r="A28" s="63"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="63"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="64"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="64"/>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="64"/>
+      <c r="A32" s="62"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="64"/>
+      <c r="A33" s="62"/>
     </row>
     <row r="34" spans="1:1" ht="16">
-      <c r="A34" s="65"/>
+      <c r="A34" s="63"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="63"/>
+      <c r="A35" s="61"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="64"/>
+      <c r="A36" s="62"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="64"/>
+      <c r="A37" s="62"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="64"/>
+      <c r="A38" s="62"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="64"/>
+      <c r="A39" s="62"/>
     </row>
     <row r="40" spans="1:1" ht="16">
-      <c r="A40" s="65"/>
+      <c r="A40" s="63"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="63"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="64"/>
+      <c r="A42" s="62"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="64"/>
+      <c r="A43" s="62"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="64"/>
+      <c r="A44" s="62"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="64"/>
+      <c r="A45" s="62"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="64"/>
+      <c r="A46" s="62"/>
     </row>
     <row r="47" spans="1:1" ht="16">
-      <c r="A47" s="65"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="63"/>
+      <c r="A48" s="61"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="64"/>
+      <c r="A49" s="62"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="64"/>
+      <c r="A50" s="62"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="50"/>
+      <c r="A51" s="48"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="55"/>
+      <c r="A52" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
